--- a/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,23 +131,7 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -190,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -210,22 +194,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,20 +214,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -609,7 +568,7 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -629,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>10000</v>
       </c>
@@ -647,7 +606,7 @@
         <v>796.37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>670.55</v>
       </c>
@@ -667,7 +626,7 @@
         <v>92.12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -687,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -706,42 +665,6 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -751,10 +674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P14"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -762,60 +685,60 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
@@ -843,20 +766,18 @@
         <v>0</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>42036</v>
       </c>
       <c r="E3" s="3">
@@ -896,14 +817,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -944,14 +865,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -992,14 +913,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1040,14 +961,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1088,14 +1009,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1136,14 +1057,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1184,14 +1105,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1232,14 +1153,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1280,14 +1201,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1328,14 +1249,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1376,14 +1297,14 @@
         <v>888.49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1424,37 +1345,17 @@
         <v>897.16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="P30" s="23"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C30:E30"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1464,11 +1365,11 @@
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1496,79 +1397,69 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="14">
         <v>42036</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
-        <v>888.49</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="E2" s="13">
+        <v>888.49</v>
+      </c>
+      <c r="F2" s="13">
         <v>788.49</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20">
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
         <v>9211.51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="14">
         <v>42005</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="16">
         <v>10000</v>
       </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,6 +140,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -180,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -231,6 +241,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +598,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -682,20 +707,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-    </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="22"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -723,10 +751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -734,105 +762,87 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="22" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="10">
         <v>42005</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="8">
         <v>10000</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="9"/>
     </row>
@@ -896,9 +906,7 @@
       <c r="C4" s="10">
         <v>42064</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>0</v>
       </c>
@@ -946,9 +954,7 @@
       <c r="C5" s="10">
         <v>42095</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>0</v>
       </c>
@@ -996,9 +1002,7 @@
       <c r="C6" s="10">
         <v>42125</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1046,9 +1050,7 @@
       <c r="C7" s="10">
         <v>42156</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>0</v>
       </c>
@@ -1096,9 +1098,7 @@
       <c r="C8" s="10">
         <v>42186</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>0</v>
       </c>
@@ -1146,9 +1146,7 @@
       <c r="C9" s="10">
         <v>42217</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>0</v>
       </c>
@@ -1196,9 +1194,7 @@
       <c r="C10" s="10">
         <v>42248</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>0</v>
       </c>
@@ -1246,9 +1242,7 @@
       <c r="C11" s="10">
         <v>42278</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>0</v>
       </c>
@@ -1296,9 +1290,7 @@
       <c r="C12" s="10">
         <v>42309</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>0</v>
       </c>
@@ -1346,9 +1338,7 @@
       <c r="C13" s="10">
         <v>42339</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>0</v>
       </c>
@@ -1396,9 +1386,7 @@
       <c r="C14" s="10">
         <v>42370</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>0</v>
       </c>
@@ -1436,7 +1424,27 @@
         <v>897.16</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="P30" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C30:E30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1446,7 +1454,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1490,7 +1498,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
-        <v>2622</v>
+        <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>31</v>
@@ -1502,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="18">
-        <v>887.72</v>
+        <v>888.49</v>
       </c>
       <c r="F2" s="18">
-        <v>785.8</v>
+        <v>788.49</v>
       </c>
       <c r="G2" s="18">
-        <v>101.92</v>
+        <v>100</v>
       </c>
       <c r="H2" s="18">
         <v>0</v>
@@ -1517,12 +1525,12 @@
         <v>0</v>
       </c>
       <c r="J2" s="20">
-        <v>9214.2000000000007</v>
+        <v>9211.51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
-        <v>2621</v>
+        <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>31</v>
@@ -1553,17 +1561,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6"/>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,10 +674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
@@ -725,17 +725,18 @@
       <c r="M1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="9">
@@ -762,12 +763,13 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -807,17 +809,18 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="3">
         <v>0</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -855,17 +858,18 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -903,17 +907,18 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -951,17 +956,18 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -999,17 +1005,18 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1047,17 +1054,18 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1095,17 +1103,18 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
+      <c r="N9" s="3"/>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1143,17 +1152,18 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1191,17 +1201,18 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
+      <c r="N11" s="3"/>
       <c r="O11" s="3">
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1239,17 +1250,18 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1287,17 +1299,18 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="3">
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1335,13 +1348,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>897.16</v>
       </c>
     </row>
